--- a/Code/Results/Cases/Case_2_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_139/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.665186041197899</v>
+        <v>1.055778869259484</v>
       </c>
       <c r="C2">
-        <v>0.4950368548714721</v>
+        <v>0.2570746161543127</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03936369197139289</v>
+        <v>0.1106345412705487</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0007991217500793269</v>
+        <v>0.002431876339472617</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1991097447758587</v>
+        <v>0.6340566669494354</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1554857193638171</v>
+        <v>0.2027027211253767</v>
       </c>
       <c r="M2">
-        <v>0.4390677958829912</v>
+        <v>0.2270515722764372</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9393447749194621</v>
+        <v>2.340885380319065</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.318648753502202</v>
+        <v>0.9464823195150984</v>
       </c>
       <c r="C3">
-        <v>0.4467786019161792</v>
+        <v>0.2409517690229563</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04139889129930963</v>
+        <v>0.1119467971376099</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008031654675121209</v>
+        <v>0.002434498755688357</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2173418785095595</v>
+        <v>0.6467971415717475</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1415066104120513</v>
+        <v>0.2002138771724162</v>
       </c>
       <c r="M3">
-        <v>0.3824742768047997</v>
+        <v>0.2101091209853223</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9548303874604613</v>
+        <v>2.376906891880083</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.106057546397381</v>
+        <v>0.8792733638976529</v>
       </c>
       <c r="C4">
-        <v>0.4171443505425714</v>
+        <v>0.2310049221545114</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04271746133710519</v>
+        <v>0.1127997913745087</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008057267448218503</v>
+        <v>0.002436194233340239</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2295231453634745</v>
+        <v>0.6551167120367491</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1331057956760944</v>
+        <v>0.1987883573293345</v>
       </c>
       <c r="M4">
-        <v>0.3478211990029081</v>
+        <v>0.1997324592189145</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9685820912653469</v>
+        <v>2.401040341550555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.019443547497417</v>
+        <v>0.8518617275983047</v>
       </c>
       <c r="C5">
-        <v>0.4050639836096934</v>
+        <v>0.2269398774795377</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0432719011793839</v>
+        <v>0.1131592932593644</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008067905995329192</v>
+        <v>0.002436906667302348</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2347253538299636</v>
+        <v>0.6586317769289725</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1297253243918775</v>
+        <v>0.1982333104203491</v>
       </c>
       <c r="M5">
-        <v>0.333718492571613</v>
+        <v>0.1955107156197187</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.975200446312769</v>
+        <v>2.411380984276036</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.005061712927329</v>
+        <v>0.8473086841531767</v>
       </c>
       <c r="C6">
-        <v>0.4030577046979431</v>
+        <v>0.2262641862538999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04336499254138693</v>
+        <v>0.1132197074314957</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008069684778587909</v>
+        <v>0.002437026267640393</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.235603286391223</v>
+        <v>0.6592229817616673</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1291665094518564</v>
+        <v>0.1981427090285237</v>
       </c>
       <c r="M6">
-        <v>0.3313777293213604</v>
+        <v>0.1948101189639218</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9763591978123998</v>
+        <v>2.413128578903724</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.104889399410752</v>
+        <v>0.8789037734827616</v>
       </c>
       <c r="C7">
-        <v>0.4169814515381631</v>
+        <v>0.2309501462268315</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04272486971410727</v>
+        <v>0.1128045915408518</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008057410103498112</v>
+        <v>0.002436203754209035</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2295923522160219</v>
+        <v>0.6551636124576241</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1330600354155109</v>
+        <v>0.1987807669776842</v>
       </c>
       <c r="M7">
-        <v>0.3476309360369143</v>
+        <v>0.1996754952873943</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9686673090175759</v>
+        <v>2.401177751227934</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.54564444932646</v>
+        <v>1.018115313472435</v>
       </c>
       <c r="C8">
-        <v>0.4783960596940631</v>
+        <v>0.2515254512938725</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04005098014430386</v>
+        <v>0.1110772065700472</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008004999918359098</v>
+        <v>0.002432762882256531</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.205185324197716</v>
+        <v>0.6383463576580954</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1506260402426065</v>
+        <v>0.2018232958969932</v>
       </c>
       <c r="M8">
-        <v>0.4195311854558454</v>
+        <v>0.2212045624477952</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9437709900957003</v>
+        <v>2.352886619685847</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.412809259983533</v>
+        <v>1.290245889010123</v>
       </c>
       <c r="C9">
-        <v>0.5989695141354616</v>
+        <v>0.2914873296000735</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03536501050302171</v>
+        <v>0.1080641227255026</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007908256475503972</v>
+        <v>0.002426689286847764</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1656191911813512</v>
+        <v>0.6093173066333346</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1866625183623185</v>
+        <v>0.2086022661259719</v>
       </c>
       <c r="M9">
-        <v>0.5615501162449092</v>
+        <v>0.2636200276306795</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9311265189599851</v>
+        <v>2.27422473689623</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.053785495625277</v>
+        <v>1.489585780646962</v>
       </c>
       <c r="C10">
-        <v>0.6879012413346857</v>
+        <v>0.3206006270932278</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03227700367286648</v>
+        <v>0.106077582624354</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007840575715134465</v>
+        <v>0.002422633799250487</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1422934390896131</v>
+        <v>0.5904065188292584</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2143202273704361</v>
+        <v>0.214076516681601</v>
       </c>
       <c r="M10">
-        <v>0.6669195338557046</v>
+        <v>0.2948928246197582</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9475918666368273</v>
+        <v>2.226263203806852</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.34674321362786</v>
+        <v>1.580128523921758</v>
       </c>
       <c r="C11">
-        <v>0.7284981981438534</v>
+        <v>0.3337892827826181</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03095267512873945</v>
+        <v>0.1052229644850244</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.000781045694740627</v>
+        <v>0.00242087631482086</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1330924859223632</v>
+        <v>0.582330238005996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2272099233403679</v>
+        <v>0.2166738162984956</v>
       </c>
       <c r="M11">
-        <v>0.7151762315516237</v>
+        <v>0.3091416668067808</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9615593148090511</v>
+        <v>2.206590795029243</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.45792231255831</v>
+        <v>1.614393348922306</v>
       </c>
       <c r="C12">
-        <v>0.7438972610983967</v>
+        <v>0.3387753150733772</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03046306015478328</v>
+        <v>0.1049063834889141</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007799142177767706</v>
+        <v>0.002420223300755642</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1298258787758506</v>
+        <v>0.5793478264756171</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2321397432629055</v>
+        <v>0.2176726964253533</v>
       </c>
       <c r="M12">
-        <v>0.7335050100955698</v>
+        <v>0.3145403689050568</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9678598053816643</v>
+        <v>2.199450873375156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.433966372740713</v>
+        <v>1.607014803163224</v>
       </c>
       <c r="C13">
-        <v>0.7405795530812327</v>
+        <v>0.3377018543489214</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03056797395730715</v>
+        <v>0.1049742517571805</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.000780157508430541</v>
+        <v>0.002420363383557649</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1305194756754791</v>
+        <v>0.5799867630353184</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2310757744058805</v>
+        <v>0.2174568883398109</v>
       </c>
       <c r="M13">
-        <v>0.7295549905322645</v>
+        <v>0.313377534070348</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9664565660981594</v>
+        <v>2.200974797082438</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.355884858087961</v>
+        <v>1.582947958398847</v>
       </c>
       <c r="C14">
-        <v>0.729764536257079</v>
+        <v>0.3341996532068094</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03091215426213806</v>
+        <v>0.1051967780634691</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.000780952429467235</v>
+        <v>0.002420822340689031</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1328192904428498</v>
+        <v>0.5820833508204437</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.227614498326588</v>
+        <v>0.216755687648714</v>
       </c>
       <c r="M14">
-        <v>0.7166829976078404</v>
+        <v>0.3095857633000563</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9620569123665632</v>
+        <v>2.205997178580276</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.308090630336324</v>
+        <v>1.568203432678899</v>
       </c>
       <c r="C15">
-        <v>0.7231435687088492</v>
+        <v>0.3320533739011751</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03112453133850496</v>
+        <v>0.1053339988872288</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007814405029973187</v>
+        <v>0.002421105092188347</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1342567892773143</v>
+        <v>0.5833774622678138</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2255008567239827</v>
+        <v>0.2163281780316169</v>
       </c>
       <c r="M15">
-        <v>0.7088059581034472</v>
+        <v>0.3072635731148949</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.959496175494877</v>
+        <v>2.209113881975938</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.03467141655824</v>
+        <v>1.483665659722192</v>
       </c>
       <c r="C16">
-        <v>0.6852514433419117</v>
+        <v>0.3197375825571385</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03236519648661509</v>
+        <v>0.1061344203192287</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007842557039319066</v>
+        <v>0.002422750408216102</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1429243602144883</v>
+        <v>0.5909449322859146</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2134844293259732</v>
+        <v>0.2139089263856278</v>
       </c>
       <c r="M16">
-        <v>0.6637730665510304</v>
+        <v>0.2939620611852973</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9468160948598694</v>
+        <v>2.227592106947966</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.867320283703691</v>
+        <v>1.431767774301306</v>
       </c>
       <c r="C17">
-        <v>0.6620458697751133</v>
+        <v>0.3121679107037494</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03314712108768958</v>
+        <v>0.1066380123136043</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007859994922861461</v>
+        <v>0.002423782094551455</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1486130000247989</v>
+        <v>0.5957222891298564</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2061947229435646</v>
+        <v>0.2124521708753946</v>
       </c>
       <c r="M17">
-        <v>0.6362355537566842</v>
+        <v>0.285807620301469</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9407512559180589</v>
+        <v>2.239478182848174</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.7711908131472</v>
+        <v>1.401904609482756</v>
       </c>
       <c r="C18">
-        <v>0.6487115935775591</v>
+        <v>0.3078088642560317</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03360441324345526</v>
+        <v>0.1069322844025064</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007870088118877307</v>
+        <v>0.002424383721010998</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1520167264235361</v>
+        <v>0.5985196263957846</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2020305865409711</v>
+        <v>0.2116243614589308</v>
       </c>
       <c r="M18">
-        <v>0.6204266185742782</v>
+        <v>0.281119554347022</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9378674694607554</v>
+        <v>2.246516623495324</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.738663444879535</v>
+        <v>1.391791302269723</v>
       </c>
       <c r="C19">
-        <v>0.6441989012684246</v>
+        <v>0.3063320869537733</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03376053186898365</v>
+        <v>0.1070327136017124</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007873516556455556</v>
+        <v>0.002424588836296978</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1531913669523721</v>
+        <v>0.5994752566543333</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2006254814989319</v>
+        <v>0.2113458118907516</v>
       </c>
       <c r="M19">
-        <v>0.6150788751425651</v>
+        <v>0.2795326343171993</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9369925624315982</v>
+        <v>2.248934359774822</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.885121695489659</v>
+        <v>1.437293739049778</v>
       </c>
       <c r="C20">
-        <v>0.6645147632727628</v>
+        <v>0.3129742525840982</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0330631002743681</v>
+        <v>0.1065839260916675</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007858132109548454</v>
+        <v>0.002423671418757985</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1479936927622028</v>
+        <v>0.5952086038208435</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2069677219149497</v>
+        <v>0.2126062023501163</v>
       </c>
       <c r="M20">
-        <v>0.639163813779092</v>
+        <v>0.2866754537443086</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9413337400954163</v>
+        <v>2.238191987773789</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.378812338845705</v>
+        <v>1.590017579411722</v>
       </c>
       <c r="C21">
-        <v>0.7329404200166039</v>
+        <v>0.3352285601714584</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03081073516210436</v>
+        <v>0.1051312256045356</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007807187008545423</v>
+        <v>0.002420687194822532</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1321377500455068</v>
+        <v>0.5814654705298885</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2286297980602541</v>
+        <v>0.216961231406728</v>
       </c>
       <c r="M21">
-        <v>0.720462249888314</v>
+        <v>0.3106994198382651</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9633210835336143</v>
+        <v>2.204513572647812</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.702903910777536</v>
+        <v>1.689703807165699</v>
       </c>
       <c r="C22">
-        <v>0.7778143008563347</v>
+        <v>0.3497249565424454</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02940808584113586</v>
+        <v>0.1042228563243973</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007774416301736284</v>
+        <v>0.002418809706001034</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1230509646228928</v>
+        <v>0.5729260456298935</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2430738168851292</v>
+        <v>0.2198968785959181</v>
       </c>
       <c r="M22">
-        <v>0.7739205825035498</v>
+        <v>0.3264176777614551</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9836273726868399</v>
+        <v>2.184307816676366</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.529782962819525</v>
+        <v>1.636511695268553</v>
       </c>
       <c r="C23">
-        <v>0.7538482378231208</v>
+        <v>0.3419924540014847</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03015024735392535</v>
+        <v>0.1047039174635833</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007791860619138352</v>
+        <v>0.002419805108159869</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1277788103882678</v>
+        <v>0.5774431370242539</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2353369821746867</v>
+        <v>0.2183219071018243</v>
       </c>
       <c r="M23">
-        <v>0.745356133781911</v>
+        <v>0.3180270678168213</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9722183472607639</v>
+        <v>2.194926496387623</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.877073422265084</v>
+        <v>1.434795532412068</v>
       </c>
       <c r="C24">
-        <v>0.6633985553895911</v>
+        <v>0.3126097276441726</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03310106195793386</v>
+        <v>0.1066083636749189</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007858974075745261</v>
+        <v>0.002423721428675867</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1482732676352967</v>
+        <v>0.5954406828150844</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2066181658979644</v>
+        <v>0.2125365345063699</v>
       </c>
       <c r="M24">
-        <v>0.6378398772014577</v>
+        <v>0.2862831061276765</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9410685268505148</v>
+        <v>2.23877283815284</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.177703071934218</v>
+        <v>1.216726868874048</v>
       </c>
       <c r="C25">
-        <v>0.5663106033138376</v>
+        <v>0.280719104100541</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03657150937485787</v>
+        <v>0.1088392745947201</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007933810293671573</v>
+        <v>0.002428260627489754</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1753666227040629</v>
+        <v>0.6167466667740822</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1767224215855379</v>
+        <v>0.2066815518849836</v>
       </c>
       <c r="M25">
-        <v>0.5229807884830819</v>
+        <v>0.2521254653495433</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9303071233265285</v>
+        <v>2.293782320316595</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_139/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.055778869259484</v>
+        <v>2.665186041197842</v>
       </c>
       <c r="C2">
-        <v>0.2570746161543127</v>
+        <v>0.4950368548712447</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1106345412705487</v>
+        <v>0.03936369197135242</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002431876339472617</v>
+        <v>0.0007991217501198986</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6340566669494354</v>
+        <v>0.1991097447758534</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2027027211253767</v>
+        <v>0.1554857193638384</v>
       </c>
       <c r="M2">
-        <v>0.2270515722764372</v>
+        <v>0.4390677958829698</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.340885380319065</v>
+        <v>0.9393447749195047</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9464823195150984</v>
+        <v>2.318648753502373</v>
       </c>
       <c r="C3">
-        <v>0.2409517690229563</v>
+        <v>0.4467786019161508</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1119467971376099</v>
+        <v>0.0413988912993431</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002434498755688357</v>
+        <v>0.0008031654674230945</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6467971415717475</v>
+        <v>0.2173418785095738</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2002138771724162</v>
+        <v>0.1415066104118807</v>
       </c>
       <c r="M3">
-        <v>0.2101091209853223</v>
+        <v>0.3824742768048068</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.376906891880083</v>
+        <v>0.954830387460504</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8792733638976529</v>
+        <v>2.106057546397608</v>
       </c>
       <c r="C4">
-        <v>0.2310049221545114</v>
+        <v>0.4171443505423156</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1127997913745087</v>
+        <v>0.0427174613371033</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002436194233340239</v>
+        <v>0.0008057267448208505</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6551167120367491</v>
+        <v>0.2295231453634727</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1987883573293345</v>
+        <v>0.1331057956761938</v>
       </c>
       <c r="M4">
-        <v>0.1997324592189145</v>
+        <v>0.3478211990028939</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.401040341550555</v>
+        <v>0.9685820912653469</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8518617275983047</v>
+        <v>2.01944354749736</v>
       </c>
       <c r="C5">
-        <v>0.2269398774795377</v>
+        <v>0.4050639836097787</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1131592932593644</v>
+        <v>0.04327190117937835</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002436906667302348</v>
+        <v>0.0008067905994589418</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6586317769289725</v>
+        <v>0.2347253538299707</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1982333104203491</v>
+        <v>0.1297253243917851</v>
       </c>
       <c r="M5">
-        <v>0.1955107156197187</v>
+        <v>0.333718492571613</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.411380984276036</v>
+        <v>0.9752004463127975</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8473086841531767</v>
+        <v>2.0050617129275</v>
       </c>
       <c r="C6">
-        <v>0.2262641862538999</v>
+        <v>0.4030577046974599</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1132197074314957</v>
+        <v>0.04336499254141335</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002437026267640393</v>
+        <v>0.0008069684778138507</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6592229817616673</v>
+        <v>0.2356032863912159</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1981427090285237</v>
+        <v>0.1291665094519203</v>
       </c>
       <c r="M6">
-        <v>0.1948101189639218</v>
+        <v>0.3313777293213604</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.413128578903724</v>
+        <v>0.9763591978123713</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8789037734827616</v>
+        <v>2.104889399410865</v>
       </c>
       <c r="C7">
-        <v>0.2309501462268315</v>
+        <v>0.4169814515379926</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1128045915408518</v>
+        <v>0.04272486971407868</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002436203754209035</v>
+        <v>0.0008057410103499903</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6551636124576241</v>
+        <v>0.2295923522160201</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1987807669776842</v>
+        <v>0.133060035415383</v>
       </c>
       <c r="M7">
-        <v>0.1996754952873943</v>
+        <v>0.3476309360369001</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.401177751227934</v>
+        <v>0.9686673090175191</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.018115313472435</v>
+        <v>2.545644449326403</v>
       </c>
       <c r="C8">
-        <v>0.2515254512938725</v>
+        <v>0.4783960596940062</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1110772065700472</v>
+        <v>0.04005098014433223</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002432762882256531</v>
+        <v>0.0008004999918355768</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6383463576580954</v>
+        <v>0.2051853241977266</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2018232958969932</v>
+        <v>0.1506260402425497</v>
       </c>
       <c r="M8">
-        <v>0.2212045624477952</v>
+        <v>0.4195311854558597</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.352886619685847</v>
+        <v>0.9437709900956435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.290245889010123</v>
+        <v>3.412809259983362</v>
       </c>
       <c r="C9">
-        <v>0.2914873296000735</v>
+        <v>0.5989695141349785</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1080641227255026</v>
+        <v>0.03536501050305868</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002426689286847764</v>
+        <v>0.0007908256476071686</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6093173066333346</v>
+        <v>0.1656191911813636</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2086022661259719</v>
+        <v>0.1866625183624109</v>
       </c>
       <c r="M9">
-        <v>0.2636200276306795</v>
+        <v>0.5615501162449235</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.27422473689623</v>
+        <v>0.9311265189600277</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.489585780646962</v>
+        <v>4.053785495625334</v>
       </c>
       <c r="C10">
-        <v>0.3206006270932278</v>
+        <v>0.6879012413350551</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.106077582624354</v>
+        <v>0.0322770036728656</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002422633799250487</v>
+        <v>0.0007840575714531979</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5904065188292584</v>
+        <v>0.1422934390896149</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.214076516681601</v>
+        <v>0.2143202273704645</v>
       </c>
       <c r="M10">
-        <v>0.2948928246197582</v>
+        <v>0.6669195338557188</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.226263203806852</v>
+        <v>0.9475918666368415</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.580128523921758</v>
+        <v>4.346743213628258</v>
       </c>
       <c r="C11">
-        <v>0.3337892827826181</v>
+        <v>0.7284981981435976</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1052229644850244</v>
+        <v>0.03095267512876712</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.00242087631482086</v>
+        <v>0.0007810456947585087</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.582330238005996</v>
+        <v>0.1330924859223703</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2166738162984956</v>
+        <v>0.2272099233404674</v>
       </c>
       <c r="M11">
-        <v>0.3091416668067808</v>
+        <v>0.7151762315516095</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.206590795029243</v>
+        <v>0.9615593148091079</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.614393348922306</v>
+        <v>4.457922312558026</v>
       </c>
       <c r="C12">
-        <v>0.3387753150733772</v>
+        <v>0.743897261098283</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1049063834889141</v>
+        <v>0.03046306015478645</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002420223300755642</v>
+        <v>0.0007799142177593013</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5793478264756171</v>
+        <v>0.129825878775863</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2176726964253533</v>
+        <v>0.2321397432629198</v>
       </c>
       <c r="M12">
-        <v>0.3145403689050568</v>
+        <v>0.7335050100955556</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.199450873375156</v>
+        <v>0.9678598053816785</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.607014803163224</v>
+        <v>4.43396637274094</v>
       </c>
       <c r="C13">
-        <v>0.3377018543489214</v>
+        <v>0.7405795530811758</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1049742517571805</v>
+        <v>0.03056797395730337</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002420363383557649</v>
+        <v>0.0007801575083326912</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5799867630353184</v>
+        <v>0.1305194756754631</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2174568883398109</v>
+        <v>0.2310757744058662</v>
       </c>
       <c r="M13">
-        <v>0.313377534070348</v>
+        <v>0.7295549905322645</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.200974797082438</v>
+        <v>0.9664565660981594</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.582947958398847</v>
+        <v>4.355884858087848</v>
       </c>
       <c r="C14">
-        <v>0.3341996532068094</v>
+        <v>0.729764536257079</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1051967780634691</v>
+        <v>0.03091215426213634</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002420822340689031</v>
+        <v>0.0007809524293333791</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5820833508204437</v>
+        <v>0.1328192904428498</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.216755687648714</v>
+        <v>0.2276144983265311</v>
       </c>
       <c r="M14">
-        <v>0.3095857633000563</v>
+        <v>0.7166829976078404</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.205997178580276</v>
+        <v>0.9620569123665064</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.568203432678899</v>
+        <v>4.308090630336324</v>
       </c>
       <c r="C15">
-        <v>0.3320533739011751</v>
+        <v>0.7231435687093608</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1053339988872288</v>
+        <v>0.03112453133851606</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002421105092188347</v>
+        <v>0.0007814405030533038</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5833774622678138</v>
+        <v>0.134256789277325</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2163281780316169</v>
+        <v>0.2255008567240253</v>
       </c>
       <c r="M15">
-        <v>0.3072635731148949</v>
+        <v>0.7088059581034614</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.209113881975938</v>
+        <v>0.959496175494948</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.483665659722192</v>
+        <v>4.034671416558012</v>
       </c>
       <c r="C16">
-        <v>0.3197375825571385</v>
+        <v>0.6852514433419401</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1061344203192287</v>
+        <v>0.03236519648664454</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002422750408216102</v>
+        <v>0.0007842557039322931</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5909449322859146</v>
+        <v>0.1429243602144741</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2139089263856278</v>
+        <v>0.2134844293260443</v>
       </c>
       <c r="M16">
-        <v>0.2939620611852973</v>
+        <v>0.6637730665510304</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.227592106947966</v>
+        <v>0.9468160948598552</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.431767774301306</v>
+        <v>3.867320283703577</v>
       </c>
       <c r="C17">
-        <v>0.3121679107037494</v>
+        <v>0.6620458697751417</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1066380123136043</v>
+        <v>0.03314712108771434</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002423782094551455</v>
+        <v>0.0007859994922844726</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5957222891298564</v>
+        <v>0.1486130000248114</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2124521708753946</v>
+        <v>0.2061947229435646</v>
       </c>
       <c r="M17">
-        <v>0.285807620301469</v>
+        <v>0.6362355537566771</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.239478182848174</v>
+        <v>0.9407512559180731</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.401904609482756</v>
+        <v>3.771190813147371</v>
       </c>
       <c r="C18">
-        <v>0.3078088642560317</v>
+        <v>0.648711593577076</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1069322844025064</v>
+        <v>0.03360441324346264</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002424383721010998</v>
+        <v>0.0007870088119444631</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5985196263957846</v>
+        <v>0.1520167264235557</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2116243614589308</v>
+        <v>0.2020305865409</v>
       </c>
       <c r="M18">
-        <v>0.281119554347022</v>
+        <v>0.620426618574264</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.246516623495324</v>
+        <v>0.9378674694607696</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.391791302269723</v>
+        <v>3.738663444879535</v>
       </c>
       <c r="C19">
-        <v>0.3063320869537733</v>
+        <v>0.6441989012682257</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1070327136017124</v>
+        <v>0.03376053186897526</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002424588836296978</v>
+        <v>0.0007873516556458084</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5994752566543333</v>
+        <v>0.1531913669523792</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2113458118907516</v>
+        <v>0.2006254814989177</v>
       </c>
       <c r="M19">
-        <v>0.2795326343171993</v>
+        <v>0.6150788751425864</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.248934359774822</v>
+        <v>0.9369925624315698</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.437293739049778</v>
+        <v>3.885121695489829</v>
       </c>
       <c r="C20">
-        <v>0.3129742525840982</v>
+        <v>0.6645147632727628</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1065839260916675</v>
+        <v>0.03306310027437417</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002423671418757985</v>
+        <v>0.0007858132109718689</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5952086038208435</v>
+        <v>0.147993692762201</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2126062023501163</v>
+        <v>0.2069677219149924</v>
       </c>
       <c r="M20">
-        <v>0.2866754537443086</v>
+        <v>0.6391638137791062</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.238191987773789</v>
+        <v>0.941333740095402</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.590017579411722</v>
+        <v>4.378812338845819</v>
       </c>
       <c r="C21">
-        <v>0.3352285601714584</v>
+        <v>0.7329404200167176</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1051312256045356</v>
+        <v>0.03081073516209026</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002420687194822532</v>
+        <v>0.0007807187007965895</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5814654705298885</v>
+        <v>0.1321377500455068</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.216961231406728</v>
+        <v>0.2286297980602541</v>
       </c>
       <c r="M21">
-        <v>0.3106994198382651</v>
+        <v>0.7204622498883069</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.204513572647812</v>
+        <v>0.9633210835335575</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.689703807165699</v>
+        <v>4.702903910777593</v>
       </c>
       <c r="C22">
-        <v>0.3497249565424454</v>
+        <v>0.7778143008565337</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1042228563243973</v>
+        <v>0.0294080858411509</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002418809706001034</v>
+        <v>0.0007774416302302013</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5729260456298935</v>
+        <v>0.1230509646228928</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2198968785959181</v>
+        <v>0.2430738168851008</v>
       </c>
       <c r="M22">
-        <v>0.3264176777614551</v>
+        <v>0.7739205825035427</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.184307816676366</v>
+        <v>0.9836273726869251</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.636511695268553</v>
+        <v>4.529782962819866</v>
       </c>
       <c r="C23">
-        <v>0.3419924540014847</v>
+        <v>0.7538482378231208</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1047039174635833</v>
+        <v>0.03015024735391122</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002419805108159869</v>
+        <v>0.0007791860619502371</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5774431370242539</v>
+        <v>0.1277788103882553</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2183219071018243</v>
+        <v>0.2353369821747151</v>
       </c>
       <c r="M23">
-        <v>0.3180270678168213</v>
+        <v>0.7453561337819039</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.194926496387623</v>
+        <v>0.9722183472607355</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.434795532412068</v>
+        <v>3.877073422265028</v>
       </c>
       <c r="C24">
-        <v>0.3126097276441726</v>
+        <v>0.6633985553891364</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1066083636749189</v>
+        <v>0.03310106195794696</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002423721428675867</v>
+        <v>0.000785897407609065</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5954406828150844</v>
+        <v>0.1482732676352878</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2125365345063699</v>
+        <v>0.2066181658980781</v>
       </c>
       <c r="M24">
-        <v>0.2862831061276765</v>
+        <v>0.6378398772014506</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.23877283815284</v>
+        <v>0.9410685268506427</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.216726868874048</v>
+        <v>3.177703071934388</v>
       </c>
       <c r="C25">
-        <v>0.280719104100541</v>
+        <v>0.5663106033142355</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1088392745947201</v>
+        <v>0.03657150937485121</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002428260627489754</v>
+        <v>0.0007933810293808109</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6167466667740822</v>
+        <v>0.1753666227040664</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2066815518849836</v>
+        <v>0.1767224215854739</v>
       </c>
       <c r="M25">
-        <v>0.2521254653495433</v>
+        <v>0.522980788483089</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.293782320316595</v>
+        <v>0.930307123326557</v>
       </c>
     </row>
   </sheetData>
